--- a/team_details.xlsx
+++ b/team_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\GitHub\Tubes_ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E59CBD6-8F6C-49A7-BFFC-BDC4E8DA948A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFD436B-E1BA-4272-953F-FD9F287149B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5E615DA3-7F11-4B13-B360-D43BF7BBC0C8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
   <si>
     <t>Nama anggota kelompok.</t>
   </si>
@@ -92,12 +92,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -134,9 +140,6 @@
     <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -148,6 +151,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -467,7 +473,7 @@
   <dimension ref="A2:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,43 +484,43 @@
     <col min="4" max="4" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>

--- a/team_details.xlsx
+++ b/team_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\GitHub\Tubes_ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFD436B-E1BA-4272-953F-FD9F287149B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0043D013-4E52-454C-A5EC-637889C6D4FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5E615DA3-7F11-4B13-B360-D43BF7BBC0C8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Nama anggota kelompok.</t>
   </si>
@@ -141,9 +141,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -154,6 +151,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -473,7 +473,7 @@
   <dimension ref="A2:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,42 +485,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
